--- a/Excel Practice Sheet  - 2.xlsx
+++ b/Excel Practice Sheet  - 2.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01400C8-81D8-4E82-BCD8-1639E66371FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221E1B12-619D-4EB3-AC02-351CEBB7101D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{67E8DA95-3A18-49ED-95FD-83640ED7A3D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{67E8DA95-3A18-49ED-95FD-83640ED7A3D7}"/>
   </bookViews>
   <sheets>
     <sheet name="1- PivotTable" sheetId="9" r:id="rId1"/>
     <sheet name="2- PivotTable" sheetId="11" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Region">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
-    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="157">
   <si>
     <t>Product Code</t>
   </si>
@@ -487,13 +499,28 @@
   <si>
     <t>Sr. No.</t>
   </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -520,7 +547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,17 +738,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,22 +771,1734 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1 2" xfId="1" xr:uid="{B2AD1880-B68A-4B08-96D9-4C60618E7766}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="92">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -779,220 +2517,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1006,6 +2530,89 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Region">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5E06AE-A95E-E620-9E96-A84E3BE8517B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14973300" y="1188720"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,6 +2815,47 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abhishek Wavhal" refreshedDate="45217.520723611109" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="123" xr:uid="{AA6AA670-BDE7-4CBF-A648-3F51BBBAF76B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:G126" sheet="1- PivotTable"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Sr. No." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="123"/>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="4">
+        <s v="South"/>
+        <s v="North"/>
+        <s v="West"/>
+        <s v="East"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Names" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="28"/>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="123" maxValue="999"/>
+    </cacheField>
+    <cacheField name="COGS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="75" maxValue="610"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="890479849"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="123">
   <r>
@@ -3567,8 +5215,1237 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="123">
+  <r>
+    <n v="1"/>
+    <s v="Laptops"/>
+    <x v="0"/>
+    <s v="Aditi"/>
+    <n v="15"/>
+    <n v="523"/>
+    <n v="321"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Laptops"/>
+    <x v="0"/>
+    <s v="Aishwarya"/>
+    <n v="20"/>
+    <n v="792"/>
+    <n v="456"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Laptops"/>
+    <x v="0"/>
+    <s v="Ananya"/>
+    <n v="18"/>
+    <n v="654"/>
+    <n v="398"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Laptops"/>
+    <x v="0"/>
+    <s v="Diya"/>
+    <n v="14"/>
+    <n v="345"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Laptops"/>
+    <x v="0"/>
+    <s v="Kavya"/>
+    <n v="16"/>
+    <n v="678"/>
+    <n v="412"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Electronics"/>
+    <x v="1"/>
+    <s v="Krish"/>
+    <n v="22"/>
+    <n v="123"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Electronics"/>
+    <x v="1"/>
+    <s v="Pranav"/>
+    <n v="19"/>
+    <n v="489"/>
+    <n v="286"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Electronics"/>
+    <x v="1"/>
+    <s v="Rupa"/>
+    <n v="12"/>
+    <n v="354"/>
+    <n v="215"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Electronics"/>
+    <x v="1"/>
+    <s v="Kriti"/>
+    <n v="9"/>
+    <n v="195"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Furniture"/>
+    <x v="2"/>
+    <s v="Meera"/>
+    <n v="11"/>
+    <n v="274"/>
+    <n v="167"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Furniture"/>
+    <x v="2"/>
+    <s v="Priya"/>
+    <n v="26"/>
+    <n v="837"/>
+    <n v="512"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Furniture"/>
+    <x v="2"/>
+    <s v="Samir"/>
+    <n v="28"/>
+    <n v="911"/>
+    <n v="556"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Furniture"/>
+    <x v="2"/>
+    <s v="Asha"/>
+    <n v="21"/>
+    <n v="653"/>
+    <n v="398"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Clothing"/>
+    <x v="3"/>
+    <s v="Nandini"/>
+    <n v="17"/>
+    <n v="789"/>
+    <n v="458"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Clothing"/>
+    <x v="3"/>
+    <s v="Ramesh"/>
+    <n v="8"/>
+    <n v="125"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Clothing"/>
+    <x v="3"/>
+    <s v="Shreya"/>
+    <n v="14"/>
+    <n v="367"/>
+    <n v="224"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Clothing"/>
+    <x v="3"/>
+    <s v="Preeti"/>
+    <n v="23"/>
+    <n v="524"/>
+    <n v="319"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Kitchenware"/>
+    <x v="0"/>
+    <s v="Nisha"/>
+    <n v="13"/>
+    <n v="213"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Kitchenware"/>
+    <x v="0"/>
+    <s v="Rohan"/>
+    <n v="15"/>
+    <n v="789"/>
+    <n v="458"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Kitchenware"/>
+    <x v="0"/>
+    <s v="Siddharth"/>
+    <n v="21"/>
+    <n v="312"/>
+    <n v="190"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Kitchenware"/>
+    <x v="1"/>
+    <s v="Rishi"/>
+    <n v="19"/>
+    <n v="456"/>
+    <n v="279"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Home Decor"/>
+    <x v="1"/>
+    <s v="Akanksha"/>
+    <n v="10"/>
+    <n v="224"/>
+    <n v="137"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Home Decor"/>
+    <x v="3"/>
+    <s v="Anurag"/>
+    <n v="11"/>
+    <n v="334"/>
+    <n v="204"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Home Decor"/>
+    <x v="3"/>
+    <s v="Kamal"/>
+    <n v="7"/>
+    <n v="135"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Appliances"/>
+    <x v="2"/>
+    <s v="Harsh"/>
+    <n v="15"/>
+    <n v="689"/>
+    <n v="421"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Appliances"/>
+    <x v="2"/>
+    <s v="Alok"/>
+    <n v="25"/>
+    <n v="432"/>
+    <n v="263"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Appliances"/>
+    <x v="2"/>
+    <s v="Kanika"/>
+    <n v="11"/>
+    <n v="287"/>
+    <n v="175"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Toys"/>
+    <x v="3"/>
+    <s v="Varsha"/>
+    <n v="8"/>
+    <n v="176"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Toys"/>
+    <x v="2"/>
+    <s v="Naveen"/>
+    <n v="13"/>
+    <n v="555"/>
+    <n v="339"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Toys"/>
+    <x v="2"/>
+    <s v="Shobha"/>
+    <n v="15"/>
+    <n v="432"/>
+    <n v="263"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Books"/>
+    <x v="0"/>
+    <s v="Sunil"/>
+    <n v="20"/>
+    <n v="798"/>
+    <n v="487"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Books"/>
+    <x v="0"/>
+    <s v="Meenakshi"/>
+    <n v="15"/>
+    <n v="265"/>
+    <n v="162"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Books"/>
+    <x v="0"/>
+    <s v="Rohit"/>
+    <n v="28"/>
+    <n v="976"/>
+    <n v="594"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Books"/>
+    <x v="0"/>
+    <s v="Vikas"/>
+    <n v="10"/>
+    <n v="211"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Sports"/>
+    <x v="3"/>
+    <s v="Anjali"/>
+    <n v="12"/>
+    <n v="256"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Sports"/>
+    <x v="2"/>
+    <s v="Divya"/>
+    <n v="22"/>
+    <n v="879"/>
+    <n v="535"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Sports"/>
+    <x v="3"/>
+    <s v="Raj"/>
+    <n v="19"/>
+    <n v="765"/>
+    <n v="468"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Sports"/>
+    <x v="2"/>
+    <s v="Kirti"/>
+    <n v="17"/>
+    <n v="599"/>
+    <n v="365"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Garden"/>
+    <x v="1"/>
+    <s v="Rajesh"/>
+    <n v="18"/>
+    <n v="456"/>
+    <n v="279"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Garden"/>
+    <x v="3"/>
+    <s v="Avinash"/>
+    <n v="9"/>
+    <n v="123"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Garden"/>
+    <x v="1"/>
+    <s v="Monika"/>
+    <n v="12"/>
+    <n v="213"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Garden"/>
+    <x v="3"/>
+    <s v="Satish"/>
+    <n v="12"/>
+    <n v="322"/>
+    <n v="197"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Garden"/>
+    <x v="1"/>
+    <s v="Rajesh"/>
+    <n v="18"/>
+    <n v="499"/>
+    <n v="305"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Garden"/>
+    <x v="3"/>
+    <s v="Avinash"/>
+    <n v="9"/>
+    <n v="192"/>
+    <n v="117"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Garden"/>
+    <x v="1"/>
+    <s v="Monika"/>
+    <n v="12"/>
+    <n v="678"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Garden"/>
+    <x v="3"/>
+    <s v="Satish"/>
+    <n v="12"/>
+    <n v="321"/>
+    <n v="196"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Electronics"/>
+    <x v="2"/>
+    <s v="Anita"/>
+    <n v="15"/>
+    <n v="765"/>
+    <n v="466"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Electronics"/>
+    <x v="0"/>
+    <s v="Rahul"/>
+    <n v="14"/>
+    <n v="541"/>
+    <n v="331"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Electronics"/>
+    <x v="3"/>
+    <s v="Sunitha"/>
+    <n v="9"/>
+    <n v="187"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Electronics"/>
+    <x v="2"/>
+    <s v="Arti"/>
+    <n v="15"/>
+    <n v="786"/>
+    <n v="479"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Furniture"/>
+    <x v="0"/>
+    <s v="Rahul"/>
+    <n v="14"/>
+    <n v="655"/>
+    <n v="399"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Furniture"/>
+    <x v="3"/>
+    <s v="Ananya"/>
+    <n v="20"/>
+    <n v="989"/>
+    <n v="603"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Furniture"/>
+    <x v="2"/>
+    <s v="Praveen"/>
+    <n v="16"/>
+    <n v="722"/>
+    <n v="441"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Furniture"/>
+    <x v="1"/>
+    <s v="Sneha"/>
+    <n v="17"/>
+    <n v="864"/>
+    <n v="527"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Clothing"/>
+    <x v="2"/>
+    <s v="Rajat"/>
+    <n v="20"/>
+    <n v="999"/>
+    <n v="610"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Clothing"/>
+    <x v="3"/>
+    <s v="Kanika"/>
+    <n v="15"/>
+    <n v="762"/>
+    <n v="465"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Clothing"/>
+    <x v="0"/>
+    <s v="Anjana"/>
+    <n v="9"/>
+    <n v="127"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Clothing"/>
+    <x v="2"/>
+    <s v="Meenakshi"/>
+    <n v="8"/>
+    <n v="164"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Kitchenware"/>
+    <x v="3"/>
+    <s v="Manju"/>
+    <n v="14"/>
+    <n v="646"/>
+    <n v="394"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Kitchenware"/>
+    <x v="1"/>
+    <s v="Rohini"/>
+    <n v="11"/>
+    <n v="294"/>
+    <n v="179"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Kitchenware"/>
+    <x v="2"/>
+    <s v="Divya"/>
+    <n v="10"/>
+    <n v="223"/>
+    <n v="136"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Kitchenware"/>
+    <x v="3"/>
+    <s v="Anjali"/>
+    <n v="15"/>
+    <n v="785"/>
+    <n v="480"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Home Decor"/>
+    <x v="1"/>
+    <s v="Rajiv"/>
+    <n v="16"/>
+    <n v="777"/>
+    <n v="475"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Home Decor"/>
+    <x v="3"/>
+    <s v="Arpita"/>
+    <n v="9"/>
+    <n v="144"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Home Decor"/>
+    <x v="0"/>
+    <s v="Praveen"/>
+    <n v="18"/>
+    <n v="699"/>
+    <n v="426"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Home Decor"/>
+    <x v="3"/>
+    <s v="Vinay"/>
+    <n v="14"/>
+    <n v="665"/>
+    <n v="406"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="Appliances"/>
+    <x v="2"/>
+    <s v="Neelam"/>
+    <n v="10"/>
+    <n v="233"/>
+    <n v="142"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="Appliances"/>
+    <x v="1"/>
+    <s v="Vikram"/>
+    <n v="11"/>
+    <n v="356"/>
+    <n v="217"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="Appliances"/>
+    <x v="0"/>
+    <s v="Komal"/>
+    <n v="16"/>
+    <n v="715"/>
+    <n v="436"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Appliances"/>
+    <x v="3"/>
+    <s v="Sonia"/>
+    <n v="18"/>
+    <n v="777"/>
+    <n v="475"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="Books"/>
+    <x v="0"/>
+    <s v="Amit"/>
+    <n v="20"/>
+    <n v="988"/>
+    <n v="602"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="Books"/>
+    <x v="2"/>
+    <s v="Abhishek"/>
+    <n v="16"/>
+    <n v="712"/>
+    <n v="434"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="Books"/>
+    <x v="3"/>
+    <s v="Anupam"/>
+    <n v="15"/>
+    <n v="798"/>
+    <n v="487"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="Books"/>
+    <x v="1"/>
+    <s v="Kamal"/>
+    <n v="10"/>
+    <n v="199"/>
+    <n v="121"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="Toys"/>
+    <x v="2"/>
+    <s v="Shweta"/>
+    <n v="12"/>
+    <n v="478"/>
+    <n v="292"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="Toys"/>
+    <x v="0"/>
+    <s v="Neha"/>
+    <n v="9"/>
+    <n v="186"/>
+    <n v="113"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="Toys"/>
+    <x v="3"/>
+    <s v="Sonali"/>
+    <n v="15"/>
+    <n v="761"/>
+    <n v="464"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="Toys"/>
+    <x v="1"/>
+    <s v="Rahul"/>
+    <n v="10"/>
+    <n v="288"/>
+    <n v="176"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="Sports"/>
+    <x v="3"/>
+    <s v="Kiran"/>
+    <n v="18"/>
+    <n v="699"/>
+    <n v="426"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="Sports"/>
+    <x v="2"/>
+    <s v="Sameer"/>
+    <n v="16"/>
+    <n v="777"/>
+    <n v="475"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="Sports"/>
+    <x v="0"/>
+    <s v="Ramesh"/>
+    <n v="11"/>
+    <n v="355"/>
+    <n v="217"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="Sports"/>
+    <x v="3"/>
+    <s v="Shikha"/>
+    <n v="10"/>
+    <n v="233"/>
+    <n v="142"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <s v="Sports"/>
+    <x v="2"/>
+    <s v="Ashok"/>
+    <n v="16"/>
+    <n v="723"/>
+    <n v="441"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <s v="Garden"/>
+    <x v="3"/>
+    <s v="Mukesh"/>
+    <n v="19"/>
+    <n v="467"/>
+    <n v="285"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="Electronics"/>
+    <x v="1"/>
+    <s v="Arvind"/>
+    <n v="11"/>
+    <n v="366"/>
+    <n v="223"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <s v="Furniture"/>
+    <x v="0"/>
+    <s v="Neha"/>
+    <n v="10"/>
+    <n v="267"/>
+    <n v="163"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <s v="Clothing"/>
+    <x v="2"/>
+    <s v="Aditya"/>
+    <n v="15"/>
+    <n v="789"/>
+    <n v="480"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <s v="Books"/>
+    <x v="3"/>
+    <s v="Avinash"/>
+    <n v="14"/>
+    <n v="655"/>
+    <n v="399"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="Home Decor"/>
+    <x v="2"/>
+    <s v="Anjali"/>
+    <n v="10"/>
+    <n v="223"/>
+    <n v="136"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <s v="Kitchenware"/>
+    <x v="1"/>
+    <s v="Kamini"/>
+    <n v="9"/>
+    <n v="192"/>
+    <n v="117"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <s v="Appliances"/>
+    <x v="0"/>
+    <s v="Manish"/>
+    <n v="12"/>
+    <n v="326"/>
+    <n v="199"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <s v="Toys"/>
+    <x v="3"/>
+    <s v="Sneha"/>
+    <n v="18"/>
+    <n v="499"/>
+    <n v="305"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <s v="Sports"/>
+    <x v="2"/>
+    <s v="Sunil"/>
+    <n v="21"/>
+    <n v="633"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <s v="Garden"/>
+    <x v="3"/>
+    <s v="Sarika"/>
+    <n v="13"/>
+    <n v="432"/>
+    <n v="263"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <s v="Electronics"/>
+    <x v="2"/>
+    <s v="Kusum"/>
+    <n v="14"/>
+    <n v="655"/>
+    <n v="399"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <s v="Furniture"/>
+    <x v="0"/>
+    <s v="Ankit"/>
+    <n v="15"/>
+    <n v="785"/>
+    <n v="480"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <s v="Clothing"/>
+    <x v="3"/>
+    <s v="Aditi"/>
+    <n v="9"/>
+    <n v="147"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <s v="Books"/>
+    <x v="0"/>
+    <s v="Vivek"/>
+    <n v="17"/>
+    <n v="864"/>
+    <n v="527"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <s v="Home Decor"/>
+    <x v="3"/>
+    <s v="Rajat"/>
+    <n v="20"/>
+    <n v="999"/>
+    <n v="610"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <s v="Kitchenware"/>
+    <x v="1"/>
+    <s v="Anurag"/>
+    <n v="16"/>
+    <n v="722"/>
+    <n v="441"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <s v="Appliances"/>
+    <x v="0"/>
+    <s v="Meenakshi"/>
+    <n v="8"/>
+    <n v="125"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="Toys"/>
+    <x v="3"/>
+    <s v="Rahul"/>
+    <n v="16"/>
+    <n v="777"/>
+    <n v="475"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="Sports"/>
+    <x v="2"/>
+    <s v="Kirti"/>
+    <n v="12"/>
+    <n v="342"/>
+    <n v="209"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <s v="Garden"/>
+    <x v="1"/>
+    <s v="Rajesh"/>
+    <n v="13"/>
+    <n v="453"/>
+    <n v="276"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="Electronics"/>
+    <x v="2"/>
+    <s v="Alok"/>
+    <n v="10"/>
+    <n v="238"/>
+    <n v="145"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <s v="Furniture"/>
+    <x v="0"/>
+    <s v="Sunitha"/>
+    <n v="19"/>
+    <n v="468"/>
+    <n v="286"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <s v="Clothing"/>
+    <x v="3"/>
+    <s v="Rohini"/>
+    <n v="11"/>
+    <n v="356"/>
+    <n v="217"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <s v="Books"/>
+    <x v="0"/>
+    <s v="Kanika"/>
+    <n v="17"/>
+    <n v="799"/>
+    <n v="488"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <s v="Home Decor"/>
+    <x v="3"/>
+    <s v="Manju"/>
+    <n v="15"/>
+    <n v="789"/>
+    <n v="480"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <s v="Kitchenware"/>
+    <x v="0"/>
+    <s v="Rohit"/>
+    <n v="8"/>
+    <n v="156"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <s v="Appliances"/>
+    <x v="2"/>
+    <s v="Praveen"/>
+    <n v="14"/>
+    <n v="655"/>
+    <n v="399"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <s v="Toys"/>
+    <x v="2"/>
+    <s v="Divya"/>
+    <n v="10"/>
+    <n v="239"/>
+    <n v="146"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <s v="Sports"/>
+    <x v="3"/>
+    <s v="Arti"/>
+    <n v="16"/>
+    <n v="745"/>
+    <n v="454"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <s v="Garden"/>
+    <x v="1"/>
+    <s v="Rahul"/>
+    <n v="19"/>
+    <n v="489"/>
+    <n v="298"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <s v="Electronics"/>
+    <x v="2"/>
+    <s v="Rahul"/>
+    <n v="9"/>
+    <n v="194"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <s v="Furniture"/>
+    <x v="0"/>
+    <s v="Sushil"/>
+    <n v="15"/>
+    <n v="786"/>
+    <n v="479"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <s v="Clothing"/>
+    <x v="3"/>
+    <s v="Vikas"/>
+    <n v="10"/>
+    <n v="219"/>
+    <n v="133"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="Books"/>
+    <x v="0"/>
+    <s v="Amit"/>
+    <n v="17"/>
+    <n v="765"/>
+    <n v="466"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <s v="Home Decor"/>
+    <x v="3"/>
+    <s v="Komal"/>
+    <n v="12"/>
+    <n v="333"/>
+    <n v="203"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <s v="Kitchenware"/>
+    <x v="0"/>
+    <s v="Sonia"/>
+    <n v="15"/>
+    <n v="789"/>
+    <n v="480"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <s v="Appliances"/>
+    <x v="2"/>
+    <s v="Neelam"/>
+    <n v="9"/>
+    <n v="127"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <s v="Toys"/>
+    <x v="3"/>
+    <s v="Vinay"/>
+    <n v="14"/>
+    <n v="655"/>
+    <n v="399"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <s v="Sports"/>
+    <x v="3"/>
+    <s v="Praveen"/>
+    <n v="10"/>
+    <n v="225"/>
+    <n v="137"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{483D007E-0CB5-4524-8BD0-33E585FABB22}" name="PivotTable6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95F379FD-CFEE-4100-9987-6C57B7DD9023}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="V13:Z18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Count" fld="5" subtotal="count" baseField="2" baseItem="0"/>
+    <dataField name="Max" fld="5" subtotal="max" baseField="2" baseItem="0"/>
+    <dataField name="Min" fld="5" subtotal="min" baseField="2" baseItem="0"/>
+    <dataField name="Average" fld="5" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="75">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{483D007E-0CB5-4524-8BD0-33E585FABB22}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V3:W8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3624,8 +6501,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9094F811-BFED-4AF2-8417-0761723F0AAC}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9094F811-BFED-4AF2-8417-0761723F0AAC}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q5:S17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3729,8 +6606,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA7583C5-2F53-4FCE-9064-E28CBD0E8516}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA7583C5-2F53-4FCE-9064-E28CBD0E8516}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q20:S100" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4103,8 +6980,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C3BB5A4-1AFA-4131-A6F0-4AF92C3105EF}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C3BB5A4-1AFA-4131-A6F0-4AF92C3105EF}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J20:O101" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4485,8 +7362,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2BD17C4B-1725-46C8-B97D-BD49F194C828}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2BD17C4B-1725-46C8-B97D-BD49F194C828}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:O17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -4678,8 +7555,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{460466CF-E571-4036-B48A-23AAA87EADA9}" name="PivotTable10" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{460466CF-E571-4036-B48A-23AAA87EADA9}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N12:P29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -4783,7 +7660,7 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Sum of Quantity" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sales USD" fld="10" baseField="8" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Sales USD" fld="10" baseField="8" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4797,8 +7674,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5208B30D-EE0C-4D2F-AA48-03779C3CF352}" name="PivotTable9" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5208B30D-EE0C-4D2F-AA48-03779C3CF352}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N4:Q9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -4872,21 +7749,45 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{D10DE80C-8845-48CF-A6E7-232C1932F71B}" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="9" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="890479849">
+      <items count="4">
+        <i x="3" s="1"/>
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Region" xr10:uid="{0FB43AC9-9265-40A7-BAED-80C15A1610F5}" cache="Slicer_Region" caption="Region" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E33BC7F1-12CD-47B2-A552-C90339193F01}" name="TSales" displayName="TSales" ref="A4:K109" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E33BC7F1-12CD-47B2-A552-C90339193F01}" name="TSales" displayName="TSales" ref="A4:K109" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="A4:K109" xr:uid="{E33BC7F1-12CD-47B2-A552-C90339193F01}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2966329C-A62F-44E6-89D5-0DE878C5EBA0}" name="Company" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{601FC05C-DD97-400B-B87A-8F0C30F1BF82}" name="Company Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{42DBEE80-7CAF-408F-B4C5-72CA26C830C6}" name="Region" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{850FFB37-8260-4587-BDB5-FEBD4F929595}" name="Sales Document" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A77C7119-0FDD-4D0C-9121-FB7463557974}" name="Document Date" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{60AE0352-1072-44E8-8DE0-C5167A1CE529}" name="Customer Code" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{8323C244-A6CF-446E-850B-B057C264D8FA}" name="Customer Name" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B3AD1F34-8C35-4AEB-A1D5-7BD5EF0AA5D0}" name="Product Code" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{C1A5384B-6BD7-4098-BF4F-C6CFF6720154}" name="Product Description" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C5DCA8D5-5839-45E9-BD9D-CCDB0465C0CF}" name="Quantity" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{D3212CF1-6C2D-497B-A08F-FF8F60667875}" name="Sales USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2966329C-A62F-44E6-89D5-0DE878C5EBA0}" name="Company" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{601FC05C-DD97-400B-B87A-8F0C30F1BF82}" name="Company Name" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{42DBEE80-7CAF-408F-B4C5-72CA26C830C6}" name="Region" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{850FFB37-8260-4587-BDB5-FEBD4F929595}" name="Sales Document" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{A77C7119-0FDD-4D0C-9121-FB7463557974}" name="Document Date" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{60AE0352-1072-44E8-8DE0-C5167A1CE529}" name="Customer Code" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{8323C244-A6CF-446E-850B-B057C264D8FA}" name="Customer Name" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{B3AD1F34-8C35-4AEB-A1D5-7BD5EF0AA5D0}" name="Product Code" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{C1A5384B-6BD7-4098-BF4F-C6CFF6720154}" name="Product Description" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{C5DCA8D5-5839-45E9-BD9D-CCDB0465C0CF}" name="Quantity" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{D3212CF1-6C2D-497B-A08F-FF8F60667875}" name="Sales USD" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5191,34 +8092,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF590C2E-A348-4945-B6B6-B6282067E128}">
   <dimension ref="A1:DL198"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="42" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9.109375" style="1" bestFit="1" customWidth="1"/>
@@ -5233,26 +8136,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:116" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
       <c r="J1"/>
       <c r="K1"/>
     </row>
     <row r="2" spans="1:116" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="19"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
@@ -5434,7 +8337,7 @@
       <c r="V4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4">
         <v>39</v>
       </c>
       <c r="X4"/>
@@ -5586,7 +8489,7 @@
       <c r="V5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5">
         <v>21</v>
       </c>
       <c r="X5"/>
@@ -5708,29 +8611,29 @@
       <c r="J6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6">
         <v>2423</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6">
         <v>1166</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6">
         <v>356</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6">
         <v>777</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6">
         <v>4722</v>
       </c>
       <c r="P6"/>
       <c r="Q6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6">
         <v>2880</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6">
         <v>4722</v>
       </c>
       <c r="T6"/>
@@ -5738,7 +8641,7 @@
       <c r="V6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6">
         <v>31</v>
       </c>
       <c r="X6"/>
@@ -5771,29 +8674,29 @@
       <c r="J7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7">
         <v>712</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7">
         <v>5666</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7">
         <v>199</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7">
         <v>1453</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7">
         <v>8030</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7">
         <v>4896</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7">
         <v>8030</v>
       </c>
       <c r="T7"/>
@@ -5801,7 +8704,7 @@
       <c r="V7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7">
         <v>32</v>
       </c>
       <c r="X7"/>
@@ -5831,27 +8734,27 @@
       <c r="J8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8">
         <v>1952</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8">
         <v>127</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8">
+      <c r="M8"/>
+      <c r="N8">
         <v>3289</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8">
         <v>5368</v>
       </c>
       <c r="P8"/>
       <c r="Q8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8">
         <v>3250</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8">
         <v>5368</v>
       </c>
       <c r="T8"/>
@@ -5859,7 +8762,7 @@
       <c r="V8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8">
         <v>123</v>
       </c>
       <c r="X8"/>
@@ -5889,29 +8792,29 @@
       <c r="J9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9">
         <v>2638</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9">
         <v>541</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9">
         <v>1527</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9">
         <v>187</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9">
         <v>4893</v>
       </c>
       <c r="P9"/>
       <c r="Q9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9">
         <v>2968</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9">
         <v>4893</v>
       </c>
       <c r="T9"/>
@@ -5945,29 +8848,29 @@
       <c r="J10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10">
         <v>3397</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10">
         <v>2961</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10">
         <v>864</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10">
         <v>989</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10">
         <v>8211</v>
       </c>
       <c r="P10"/>
       <c r="Q10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10">
         <v>5011</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10">
         <v>8211</v>
       </c>
       <c r="T10"/>
@@ -6001,30 +8904,32 @@
       <c r="J11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8">
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11">
         <v>2788</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11">
         <v>1857</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11">
         <v>4645</v>
       </c>
       <c r="P11"/>
       <c r="Q11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11">
         <v>2834</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11">
         <v>4645</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11"/>
+      <c r="V11" s="25" t="s">
+        <v>152</v>
+      </c>
       <c r="W11"/>
       <c r="X11"/>
     </row>
@@ -6053,29 +8958,29 @@
       <c r="J12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12">
         <v>223</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12">
         <v>699</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12">
         <v>1001</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12">
         <v>3399</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12">
         <v>5322</v>
       </c>
       <c r="P12"/>
       <c r="Q12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12">
         <v>3248</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12">
         <v>5322</v>
       </c>
       <c r="T12"/>
@@ -6109,36 +9014,48 @@
       <c r="J13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13">
         <v>223</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13">
         <v>2259</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13">
         <v>1664</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13">
         <v>1431</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13">
         <v>5577</v>
       </c>
       <c r="P13"/>
       <c r="Q13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13">
         <v>3379</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13">
         <v>5577</v>
       </c>
       <c r="T13"/>
       <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
+      <c r="V13" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" s="27" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="14" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -6165,30 +9082,42 @@
       <c r="J14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8">
+      <c r="K14"/>
+      <c r="L14">
         <v>2992</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8">
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14">
         <v>2992</v>
       </c>
       <c r="P14"/>
       <c r="Q14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14">
         <v>1797</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14">
         <v>2992</v>
       </c>
       <c r="T14"/>
       <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
+      <c r="V14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" s="29">
+        <v>39</v>
+      </c>
+      <c r="X14" s="29">
+        <v>999</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>123</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>491.61538461538464</v>
+      </c>
     </row>
     <row r="15" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -6215,34 +9144,46 @@
       <c r="J15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15">
         <v>3953</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15">
         <v>355</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8">
+      <c r="M15"/>
+      <c r="N15">
         <v>2923</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15">
         <v>7231</v>
       </c>
       <c r="P15"/>
       <c r="Q15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15">
         <v>4410</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15">
         <v>7231</v>
       </c>
       <c r="T15"/>
       <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
+      <c r="V15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="29">
+        <v>21</v>
+      </c>
+      <c r="X15" s="29">
+        <v>864</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>123</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>413.66666666666669</v>
+      </c>
     </row>
     <row r="16" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -6269,38 +9210,50 @@
       <c r="J16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16">
         <v>1704</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16">
         <v>186</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16">
         <v>288</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16">
         <v>2868</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16">
         <v>5046</v>
       </c>
       <c r="P16"/>
       <c r="Q16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16">
         <v>3079</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16">
         <v>5046</v>
       </c>
       <c r="T16"/>
       <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="29">
+        <v>31</v>
+      </c>
+      <c r="X16" s="29">
+        <v>988</v>
+      </c>
+      <c r="Y16" s="29">
+        <v>125</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>546.83870967741939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -6325,38 +9278,50 @@
       <c r="J17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17">
         <v>17225</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17">
         <v>16952</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17">
         <v>8687</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17">
         <v>19173</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17">
         <v>62037</v>
       </c>
       <c r="P17"/>
       <c r="Q17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17">
         <v>37752</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17">
         <v>62037</v>
       </c>
       <c r="T17"/>
       <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="29">
+        <v>32</v>
+      </c>
+      <c r="X17" s="29">
+        <v>999</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>127</v>
+      </c>
+      <c r="Z17" s="30">
+        <v>538.28125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -6390,11 +9355,23 @@
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V18" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18" s="29">
+        <v>123</v>
+      </c>
+      <c r="X18" s="29">
+        <v>999</v>
+      </c>
+      <c r="Y18" s="29">
+        <v>123</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>504.36585365853659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -6429,7 +9406,7 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -6477,7 +9454,7 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -6521,10 +9498,10 @@
       <c r="Q21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21">
         <v>712</v>
       </c>
       <c r="T21"/>
@@ -6533,7 +9510,7 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -6558,23 +9535,23 @@
       <c r="J22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8">
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22">
         <v>712</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22">
         <v>712</v>
       </c>
       <c r="P22"/>
       <c r="Q22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22">
         <v>2</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22">
         <v>670</v>
       </c>
       <c r="T22"/>
@@ -6583,7 +9560,7 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -6608,25 +9585,25 @@
       <c r="J23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23">
         <v>147</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8">
+      <c r="L23"/>
+      <c r="M23">
         <v>523</v>
       </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8">
+      <c r="N23"/>
+      <c r="O23">
         <v>670</v>
       </c>
       <c r="P23"/>
       <c r="Q23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23">
         <v>789</v>
       </c>
       <c r="T23"/>
@@ -6635,7 +9612,7 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6660,23 +9637,23 @@
       <c r="J24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8">
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24">
         <v>789</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24">
         <v>789</v>
       </c>
       <c r="P24"/>
       <c r="Q24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24">
         <v>1</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24">
         <v>792</v>
       </c>
       <c r="T24"/>
@@ -6685,7 +9662,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6710,23 +9687,23 @@
       <c r="J25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8">
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25">
         <v>792</v>
       </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8">
+      <c r="N25"/>
+      <c r="O25">
         <v>792</v>
       </c>
       <c r="P25"/>
       <c r="Q25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25">
         <v>1</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25">
         <v>224</v>
       </c>
       <c r="T25"/>
@@ -6735,7 +9712,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6760,23 +9737,23 @@
       <c r="J26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8">
+      <c r="K26"/>
+      <c r="L26">
         <v>224</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8">
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26">
         <v>224</v>
       </c>
       <c r="P26"/>
       <c r="Q26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26">
         <v>670</v>
       </c>
       <c r="T26"/>
@@ -6785,7 +9762,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6810,23 +9787,23 @@
       <c r="J27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8">
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27">
         <v>670</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27">
         <v>670</v>
       </c>
       <c r="P27"/>
       <c r="Q27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27">
         <v>2</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27">
         <v>1753</v>
       </c>
       <c r="T27"/>
@@ -6835,7 +9812,7 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6860,23 +9837,23 @@
       <c r="J28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8">
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28">
         <v>1753</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8">
+      <c r="N28"/>
+      <c r="O28">
         <v>1753</v>
       </c>
       <c r="P28"/>
       <c r="Q28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28">
         <v>2</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28">
         <v>1643</v>
       </c>
       <c r="T28"/>
@@ -6885,7 +9862,7 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6910,25 +9887,25 @@
       <c r="J29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29">
         <v>989</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8">
+      <c r="L29"/>
+      <c r="M29">
         <v>654</v>
       </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8">
+      <c r="N29"/>
+      <c r="O29">
         <v>1643</v>
       </c>
       <c r="P29"/>
       <c r="Q29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29">
         <v>1</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29">
         <v>765</v>
       </c>
       <c r="T29"/>
@@ -6937,7 +9914,7 @@
       <c r="W29"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6962,23 +9939,23 @@
       <c r="J30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8">
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30">
         <v>765</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30">
         <v>765</v>
       </c>
       <c r="P30"/>
       <c r="Q30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30">
         <v>3</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30">
         <v>1264</v>
       </c>
       <c r="T30"/>
@@ -6987,7 +9964,7 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -7012,25 +9989,25 @@
       <c r="J31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31">
         <v>1041</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8">
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31">
         <v>223</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31">
         <v>1264</v>
       </c>
       <c r="P31"/>
       <c r="Q31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R31">
         <v>1</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S31">
         <v>127</v>
       </c>
       <c r="T31"/>
@@ -7039,7 +10016,7 @@
       <c r="W31"/>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7064,23 +10041,23 @@
       <c r="J32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8">
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32">
         <v>127</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8">
+      <c r="N32"/>
+      <c r="O32">
         <v>127</v>
       </c>
       <c r="P32"/>
       <c r="Q32" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32">
         <v>785</v>
       </c>
       <c r="T32"/>
@@ -7114,23 +10091,23 @@
       <c r="J33" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8">
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33">
         <v>785</v>
       </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8">
+      <c r="N33"/>
+      <c r="O33">
         <v>785</v>
       </c>
       <c r="P33"/>
       <c r="Q33" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="R33" s="8">
+      <c r="R33">
         <v>1</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33">
         <v>798</v>
       </c>
       <c r="T33"/>
@@ -7164,23 +10141,23 @@
       <c r="J34" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34">
         <v>798</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8">
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34">
         <v>798</v>
       </c>
       <c r="P34"/>
       <c r="Q34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R34" s="8">
+      <c r="R34">
         <v>2</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34">
         <v>1056</v>
       </c>
       <c r="T34"/>
@@ -7214,25 +10191,25 @@
       <c r="J35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35">
         <v>334</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35">
         <v>722</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8">
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35">
         <v>1056</v>
       </c>
       <c r="P35"/>
       <c r="Q35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="R35" s="8">
+      <c r="R35">
         <v>1</v>
       </c>
-      <c r="S35" s="8">
+      <c r="S35">
         <v>144</v>
       </c>
       <c r="T35"/>
@@ -7266,23 +10243,23 @@
       <c r="J36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36">
         <v>144</v>
       </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8">
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36">
         <v>144</v>
       </c>
       <c r="P36"/>
       <c r="Q36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36">
         <v>1531</v>
       </c>
       <c r="T36"/>
@@ -7316,25 +10293,25 @@
       <c r="J37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37">
         <v>745</v>
       </c>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8">
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37">
         <v>786</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37">
         <v>1531</v>
       </c>
       <c r="P37"/>
       <c r="Q37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R37">
         <v>1</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37">
         <v>366</v>
       </c>
       <c r="T37"/>
@@ -7368,23 +10345,23 @@
       <c r="J38" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8">
+      <c r="K38"/>
+      <c r="L38">
         <v>366</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8">
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38">
         <v>366</v>
       </c>
       <c r="P38"/>
       <c r="Q38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R38" s="8">
+      <c r="R38">
         <v>1</v>
       </c>
-      <c r="S38" s="8">
+      <c r="S38">
         <v>653</v>
       </c>
       <c r="T38"/>
@@ -7418,23 +10395,23 @@
       <c r="J39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8">
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39">
         <v>653</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39">
         <v>653</v>
       </c>
       <c r="P39"/>
       <c r="Q39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R39">
         <v>1</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S39">
         <v>723</v>
       </c>
       <c r="T39"/>
@@ -7468,23 +10445,23 @@
       <c r="J40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8">
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40">
         <v>723</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40">
         <v>723</v>
       </c>
       <c r="P40"/>
       <c r="Q40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40">
         <v>3</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40">
         <v>970</v>
       </c>
       <c r="T40"/>
@@ -7518,23 +10495,23 @@
       <c r="J41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41">
         <v>970</v>
       </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8">
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41">
         <v>970</v>
       </c>
       <c r="P41"/>
       <c r="Q41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R41">
         <v>3</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S41">
         <v>1341</v>
       </c>
       <c r="T41"/>
@@ -7568,23 +10545,23 @@
       <c r="J42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8">
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42">
         <v>1341</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42">
         <v>1341</v>
       </c>
       <c r="P42"/>
       <c r="Q42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R42" s="8">
+      <c r="R42">
         <v>1</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S42">
         <v>345</v>
       </c>
       <c r="T42"/>
@@ -7618,23 +10595,23 @@
       <c r="J43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8">
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43">
         <v>345</v>
       </c>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8">
+      <c r="N43"/>
+      <c r="O43">
         <v>345</v>
       </c>
       <c r="P43"/>
       <c r="Q43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R43">
         <v>1</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43">
         <v>689</v>
       </c>
       <c r="T43"/>
@@ -7668,23 +10645,23 @@
       <c r="J44" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8">
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44">
         <v>689</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44">
         <v>689</v>
       </c>
       <c r="P44"/>
       <c r="Q44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44">
         <v>2</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44">
         <v>334</v>
       </c>
       <c r="T44"/>
@@ -7718,25 +10695,25 @@
       <c r="J45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45">
         <v>135</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45">
         <v>199</v>
       </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8">
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45">
         <v>334</v>
       </c>
       <c r="P45"/>
       <c r="Q45" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R45" s="8">
+      <c r="R45">
         <v>1</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S45">
         <v>192</v>
       </c>
       <c r="T45"/>
@@ -7770,23 +10747,23 @@
       <c r="J46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8">
+      <c r="K46"/>
+      <c r="L46">
         <v>192</v>
       </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8">
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46">
         <v>192</v>
       </c>
       <c r="P46"/>
       <c r="Q46" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R46" s="8">
+      <c r="R46">
         <v>3</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46">
         <v>1848</v>
       </c>
       <c r="T46"/>
@@ -7820,27 +10797,27 @@
       <c r="J47" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47">
         <v>762</v>
       </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8">
+      <c r="L47"/>
+      <c r="M47">
         <v>799</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47">
         <v>287</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47">
         <v>1848</v>
       </c>
       <c r="P47"/>
       <c r="Q47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R47" s="8">
+      <c r="R47">
         <v>1</v>
       </c>
-      <c r="S47" s="8">
+      <c r="S47">
         <v>678</v>
       </c>
       <c r="T47"/>
@@ -7872,23 +10849,23 @@
       <c r="J48" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8">
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48">
         <v>678</v>
       </c>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8">
+      <c r="N48"/>
+      <c r="O48">
         <v>678</v>
       </c>
       <c r="P48"/>
       <c r="Q48" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="R48" s="8">
+      <c r="R48">
         <v>1</v>
       </c>
-      <c r="S48" s="8">
+      <c r="S48">
         <v>699</v>
       </c>
       <c r="T48"/>
@@ -7920,23 +10897,23 @@
       <c r="J49" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49">
         <v>699</v>
       </c>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8">
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49">
         <v>699</v>
       </c>
       <c r="P49"/>
       <c r="Q49" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="R49" s="8">
+      <c r="R49">
         <v>2</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S49">
         <v>941</v>
       </c>
       <c r="T49"/>
@@ -7968,23 +10945,23 @@
       <c r="J50" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8">
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50">
         <v>941</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50">
         <v>941</v>
       </c>
       <c r="P50"/>
       <c r="Q50" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="R50" s="8">
+      <c r="R50">
         <v>2</v>
       </c>
-      <c r="S50" s="8">
+      <c r="S50">
         <v>1048</v>
       </c>
       <c r="T50"/>
@@ -8016,25 +10993,25 @@
       <c r="J51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51">
         <v>333</v>
       </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8">
+      <c r="L51"/>
+      <c r="M51">
         <v>715</v>
       </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8">
+      <c r="N51"/>
+      <c r="O51">
         <v>1048</v>
       </c>
       <c r="P51"/>
       <c r="Q51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R51" s="8">
+      <c r="R51">
         <v>1</v>
       </c>
-      <c r="S51" s="8">
+      <c r="S51">
         <v>123</v>
       </c>
       <c r="T51"/>
@@ -8066,23 +11043,23 @@
       <c r="J52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8">
+      <c r="K52"/>
+      <c r="L52">
         <v>123</v>
       </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8">
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52">
         <v>123</v>
       </c>
       <c r="P52"/>
       <c r="Q52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R52" s="8">
+      <c r="R52">
         <v>1</v>
       </c>
-      <c r="S52" s="8">
+      <c r="S52">
         <v>195</v>
       </c>
       <c r="T52"/>
@@ -8114,23 +11091,23 @@
       <c r="J53" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8">
+      <c r="K53"/>
+      <c r="L53">
         <v>195</v>
       </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8">
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53">
         <v>195</v>
       </c>
       <c r="P53"/>
       <c r="Q53" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="R53" s="8">
+      <c r="R53">
         <v>1</v>
       </c>
-      <c r="S53" s="8">
+      <c r="S53">
         <v>655</v>
       </c>
       <c r="T53"/>
@@ -8162,23 +11139,23 @@
       <c r="J54" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8">
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54">
         <v>655</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54">
         <v>655</v>
       </c>
       <c r="P54"/>
       <c r="Q54" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="R54" s="8">
+      <c r="R54">
         <v>1</v>
       </c>
-      <c r="S54" s="8">
+      <c r="S54">
         <v>326</v>
       </c>
       <c r="T54"/>
@@ -8210,23 +11187,23 @@
       <c r="J55" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8">
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55">
         <v>326</v>
       </c>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8">
+      <c r="N55"/>
+      <c r="O55">
         <v>326</v>
       </c>
       <c r="P55"/>
       <c r="Q55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="R55" s="8">
+      <c r="R55">
         <v>2</v>
       </c>
-      <c r="S55" s="8">
+      <c r="S55">
         <v>1435</v>
       </c>
       <c r="T55"/>
@@ -8258,23 +11235,23 @@
       <c r="J56" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56">
         <v>1435</v>
       </c>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8">
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56">
         <v>1435</v>
       </c>
       <c r="P56"/>
       <c r="Q56" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R56" s="8">
+      <c r="R56">
         <v>3</v>
       </c>
-      <c r="S56" s="8">
+      <c r="S56">
         <v>554</v>
       </c>
       <c r="T56"/>
@@ -8306,25 +11283,25 @@
       <c r="J57" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8">
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57">
         <v>390</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57">
         <v>164</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57">
         <v>554</v>
       </c>
       <c r="P57"/>
       <c r="Q57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R57" s="8">
+      <c r="R57">
         <v>1</v>
       </c>
-      <c r="S57" s="8">
+      <c r="S57">
         <v>274</v>
       </c>
       <c r="T57"/>
@@ -8356,23 +11333,23 @@
       <c r="J58" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8">
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58">
         <v>274</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58">
         <v>274</v>
       </c>
       <c r="P58"/>
       <c r="Q58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R58" s="8">
+      <c r="R58">
         <v>2</v>
       </c>
-      <c r="S58" s="8">
+      <c r="S58">
         <v>891</v>
       </c>
       <c r="T58"/>
@@ -8404,23 +11381,23 @@
       <c r="J59" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8">
+      <c r="K59"/>
+      <c r="L59">
         <v>891</v>
       </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8">
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59">
         <v>891</v>
       </c>
       <c r="P59"/>
       <c r="Q59" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="R59" s="8">
+      <c r="R59">
         <v>1</v>
       </c>
-      <c r="S59" s="8">
+      <c r="S59">
         <v>467</v>
       </c>
       <c r="T59"/>
@@ -8452,23 +11429,23 @@
       <c r="J60" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60">
         <v>467</v>
       </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8">
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60">
         <v>467</v>
       </c>
       <c r="P60"/>
       <c r="Q60" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R60" s="8">
+      <c r="R60">
         <v>1</v>
       </c>
-      <c r="S60" s="8">
+      <c r="S60">
         <v>789</v>
       </c>
       <c r="T60"/>
@@ -8500,23 +11477,23 @@
       <c r="J61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61">
         <v>789</v>
       </c>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8">
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61">
         <v>789</v>
       </c>
       <c r="P61"/>
       <c r="Q61" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R61" s="8">
+      <c r="R61">
         <v>1</v>
       </c>
-      <c r="S61" s="8">
+      <c r="S61">
         <v>555</v>
       </c>
       <c r="T61"/>
@@ -8548,23 +11525,23 @@
       <c r="J62" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8">
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62">
         <v>555</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62">
         <v>555</v>
       </c>
       <c r="P62"/>
       <c r="Q62" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R62" s="8">
+      <c r="R62">
         <v>2</v>
       </c>
-      <c r="S62" s="8">
+      <c r="S62">
         <v>360</v>
       </c>
       <c r="T62"/>
@@ -8596,23 +11573,23 @@
       <c r="J63" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8">
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63">
         <v>360</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O63">
         <v>360</v>
       </c>
       <c r="P63"/>
       <c r="Q63" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="R63" s="8">
+      <c r="R63">
         <v>2</v>
       </c>
-      <c r="S63" s="8">
+      <c r="S63">
         <v>453</v>
       </c>
       <c r="T63"/>
@@ -8644,23 +11621,23 @@
       <c r="J64" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8">
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64">
         <v>453</v>
       </c>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8">
+      <c r="N64"/>
+      <c r="O64">
         <v>453</v>
       </c>
       <c r="P64"/>
       <c r="Q64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R64" s="8">
+      <c r="R64">
         <v>1</v>
       </c>
-      <c r="S64" s="8">
+      <c r="S64">
         <v>213</v>
       </c>
       <c r="T64"/>
@@ -8692,23 +11669,23 @@
       <c r="J65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8">
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65">
         <v>213</v>
       </c>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8">
+      <c r="N65"/>
+      <c r="O65">
         <v>213</v>
       </c>
       <c r="P65"/>
       <c r="Q65" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R65" s="8">
+      <c r="R65">
         <v>1</v>
       </c>
-      <c r="S65" s="8">
+      <c r="S65">
         <v>489</v>
       </c>
       <c r="T65"/>
@@ -8740,23 +11717,23 @@
       <c r="J66" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8">
+      <c r="K66"/>
+      <c r="L66">
         <v>489</v>
       </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8">
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66">
         <v>489</v>
       </c>
       <c r="P66"/>
       <c r="Q66" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R66" s="8">
+      <c r="R66">
         <v>4</v>
       </c>
-      <c r="S66" s="8">
+      <c r="S66">
         <v>2301</v>
       </c>
       <c r="T66"/>
@@ -8788,27 +11765,27 @@
       <c r="J67" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67">
         <v>225</v>
       </c>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8">
+      <c r="L67"/>
+      <c r="M67">
         <v>699</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67">
         <v>1377</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O67">
         <v>2301</v>
       </c>
       <c r="P67"/>
       <c r="Q67" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="R67" s="8">
+      <c r="R67">
         <v>1</v>
       </c>
-      <c r="S67" s="8">
+      <c r="S67">
         <v>524</v>
       </c>
       <c r="T67"/>
@@ -8840,23 +11817,23 @@
       <c r="J68" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68">
         <v>524</v>
       </c>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8">
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68">
         <v>524</v>
       </c>
       <c r="P68"/>
       <c r="Q68" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R68" s="8">
+      <c r="R68">
         <v>1</v>
       </c>
-      <c r="S68" s="8">
+      <c r="S68">
         <v>837</v>
       </c>
       <c r="T68"/>
@@ -8888,23 +11865,23 @@
       <c r="J69" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8">
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69">
         <v>837</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O69">
         <v>837</v>
       </c>
       <c r="P69"/>
       <c r="Q69" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="R69" s="8">
+      <c r="R69">
         <v>6</v>
       </c>
-      <c r="S69" s="8">
+      <c r="S69">
         <v>2944</v>
       </c>
       <c r="T69"/>
@@ -8936,29 +11913,29 @@
       <c r="J70" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70">
         <v>777</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L70">
         <v>777</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M70">
         <v>1196</v>
       </c>
-      <c r="N70" s="8">
+      <c r="N70">
         <v>194</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O70">
         <v>2944</v>
       </c>
       <c r="P70"/>
       <c r="Q70" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="R70" s="8">
+      <c r="R70">
         <v>1</v>
       </c>
-      <c r="S70" s="8">
+      <c r="S70">
         <v>765</v>
       </c>
       <c r="T70"/>
@@ -8990,23 +11967,23 @@
       <c r="J71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71">
         <v>765</v>
       </c>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8">
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71">
         <v>765</v>
       </c>
       <c r="P71"/>
       <c r="Q71" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="R71" s="8">
+      <c r="R71">
         <v>2</v>
       </c>
-      <c r="S71" s="8">
+      <c r="S71">
         <v>1998</v>
       </c>
       <c r="T71"/>
@@ -9038,25 +12015,25 @@
       <c r="J72" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72">
         <v>999</v>
       </c>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8">
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72">
         <v>999</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O72">
         <v>1998</v>
       </c>
       <c r="P72"/>
       <c r="Q72" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R72" s="8">
+      <c r="R72">
         <v>3</v>
       </c>
-      <c r="S72" s="8">
+      <c r="S72">
         <v>1408</v>
       </c>
       <c r="T72"/>
@@ -9088,23 +12065,23 @@
       <c r="J73" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8">
+      <c r="K73"/>
+      <c r="L73">
         <v>1408</v>
       </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8">
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73">
         <v>1408</v>
       </c>
       <c r="P73"/>
       <c r="Q73" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="R73" s="8">
+      <c r="R73">
         <v>1</v>
       </c>
-      <c r="S73" s="8">
+      <c r="S73">
         <v>777</v>
       </c>
       <c r="T73"/>
@@ -9136,23 +12113,23 @@
       <c r="J74" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8">
+      <c r="K74"/>
+      <c r="L74">
         <v>777</v>
       </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8">
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74">
         <v>777</v>
       </c>
       <c r="P74"/>
       <c r="Q74" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R74" s="8">
+      <c r="R74">
         <v>2</v>
       </c>
-      <c r="S74" s="8">
+      <c r="S74">
         <v>480</v>
       </c>
       <c r="T74"/>
@@ -9184,25 +12161,25 @@
       <c r="J75" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75">
         <v>125</v>
       </c>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8">
+      <c r="L75"/>
+      <c r="M75">
         <v>355</v>
       </c>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8">
+      <c r="N75"/>
+      <c r="O75">
         <v>480</v>
       </c>
       <c r="P75"/>
       <c r="Q75" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R75" s="8">
+      <c r="R75">
         <v>1</v>
       </c>
-      <c r="S75" s="8">
+      <c r="S75">
         <v>456</v>
       </c>
       <c r="T75"/>
@@ -9234,23 +12211,23 @@
       <c r="J76" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8">
+      <c r="K76"/>
+      <c r="L76">
         <v>456</v>
       </c>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8">
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76">
         <v>456</v>
       </c>
       <c r="P76"/>
       <c r="Q76" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R76" s="8">
+      <c r="R76">
         <v>1</v>
       </c>
-      <c r="S76" s="8">
+      <c r="S76">
         <v>789</v>
       </c>
       <c r="T76"/>
@@ -9282,23 +12259,23 @@
       <c r="J77" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8">
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77">
         <v>789</v>
       </c>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8">
+      <c r="N77"/>
+      <c r="O77">
         <v>789</v>
       </c>
       <c r="P77"/>
       <c r="Q77" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R77" s="8">
+      <c r="R77">
         <v>2</v>
       </c>
-      <c r="S77" s="8">
+      <c r="S77">
         <v>650</v>
       </c>
       <c r="T77"/>
@@ -9330,25 +12307,25 @@
       <c r="J78" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K78">
         <v>356</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78">
         <v>294</v>
       </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8">
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78">
         <v>650</v>
       </c>
       <c r="P78"/>
       <c r="Q78" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R78" s="8">
+      <c r="R78">
         <v>2</v>
       </c>
-      <c r="S78" s="8">
+      <c r="S78">
         <v>1132</v>
       </c>
       <c r="T78"/>
@@ -9380,23 +12357,23 @@
       <c r="J79" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8">
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79">
         <v>1132</v>
       </c>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8">
+      <c r="N79"/>
+      <c r="O79">
         <v>1132</v>
       </c>
       <c r="P79"/>
       <c r="Q79" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R79" s="8">
+      <c r="R79">
         <v>1</v>
       </c>
-      <c r="S79" s="8">
+      <c r="S79">
         <v>354</v>
       </c>
       <c r="T79"/>
@@ -9428,23 +12405,23 @@
       <c r="J80" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8">
+      <c r="K80"/>
+      <c r="L80">
         <v>354</v>
       </c>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8">
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80">
         <v>354</v>
       </c>
       <c r="P80"/>
       <c r="Q80" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="R80" s="8">
+      <c r="R80">
         <v>1</v>
       </c>
-      <c r="S80" s="8">
+      <c r="S80">
         <v>777</v>
       </c>
       <c r="T80"/>
@@ -9476,23 +12453,23 @@
       <c r="J81" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8">
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81">
         <v>777</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O81">
         <v>777</v>
       </c>
       <c r="P81"/>
       <c r="Q81" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="R81" s="8">
+      <c r="R81">
         <v>1</v>
       </c>
-      <c r="S81" s="8">
+      <c r="S81">
         <v>911</v>
       </c>
       <c r="T81"/>
@@ -9524,23 +12501,23 @@
       <c r="J82" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8">
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82">
         <v>911</v>
       </c>
-      <c r="O82" s="8">
+      <c r="O82">
         <v>911</v>
       </c>
       <c r="P82"/>
       <c r="Q82" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="R82" s="8">
+      <c r="R82">
         <v>1</v>
       </c>
-      <c r="S82" s="8">
+      <c r="S82">
         <v>432</v>
       </c>
       <c r="T82"/>
@@ -9572,23 +12549,23 @@
       <c r="J83" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K83">
         <v>432</v>
       </c>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8">
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83">
         <v>432</v>
       </c>
       <c r="P83"/>
       <c r="Q83" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R83" s="8">
+      <c r="R83">
         <v>2</v>
       </c>
-      <c r="S83" s="8">
+      <c r="S83">
         <v>643</v>
       </c>
       <c r="T83"/>
@@ -9620,23 +12597,23 @@
       <c r="J84" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K84" s="8">
+      <c r="K84">
         <v>643</v>
       </c>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8">
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84">
         <v>643</v>
       </c>
       <c r="P84"/>
       <c r="Q84" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R84" s="8">
+      <c r="R84">
         <v>1</v>
       </c>
-      <c r="S84" s="8">
+      <c r="S84">
         <v>233</v>
       </c>
       <c r="T84"/>
@@ -9668,23 +12645,23 @@
       <c r="J85" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K85">
         <v>233</v>
       </c>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8">
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85">
         <v>233</v>
       </c>
       <c r="P85"/>
       <c r="Q85" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="R85" s="8">
+      <c r="R85">
         <v>1</v>
       </c>
-      <c r="S85" s="8">
+      <c r="S85">
         <v>432</v>
       </c>
       <c r="T85"/>
@@ -9716,23 +12693,23 @@
       <c r="J86" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8">
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86">
         <v>432</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O86">
         <v>432</v>
       </c>
       <c r="P86"/>
       <c r="Q86" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R86" s="8">
+      <c r="R86">
         <v>1</v>
       </c>
-      <c r="S86" s="8">
+      <c r="S86">
         <v>367</v>
       </c>
       <c r="T86"/>
@@ -9762,22 +12739,22 @@
       <c r="J87" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K87">
         <v>367</v>
       </c>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8">
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87">
         <v>367</v>
       </c>
       <c r="Q87" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="R87" s="8">
+      <c r="R87">
         <v>1</v>
       </c>
-      <c r="S87" s="8">
+      <c r="S87">
         <v>478</v>
       </c>
     </row>
@@ -9806,22 +12783,22 @@
       <c r="J88" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8">
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88">
         <v>478</v>
       </c>
-      <c r="O88" s="8">
+      <c r="O88">
         <v>478</v>
       </c>
       <c r="Q88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R88" s="8">
+      <c r="R88">
         <v>1</v>
       </c>
-      <c r="S88" s="8">
+      <c r="S88">
         <v>312</v>
       </c>
     </row>
@@ -9850,22 +12827,22 @@
       <c r="J89" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8">
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89">
         <v>312</v>
       </c>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8">
+      <c r="N89"/>
+      <c r="O89">
         <v>312</v>
       </c>
       <c r="Q89" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="R89" s="8">
+      <c r="R89">
         <v>2</v>
       </c>
-      <c r="S89" s="8">
+      <c r="S89">
         <v>1363</v>
       </c>
     </row>
@@ -9894,24 +12871,24 @@
       <c r="J90" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K90" s="8">
+      <c r="K90">
         <v>499</v>
       </c>
-      <c r="L90" s="8">
+      <c r="L90">
         <v>864</v>
       </c>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8">
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90">
         <v>1363</v>
       </c>
       <c r="Q90" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="R90" s="8">
+      <c r="R90">
         <v>1</v>
       </c>
-      <c r="S90" s="8">
+      <c r="S90">
         <v>761</v>
       </c>
     </row>
@@ -9940,22 +12917,22 @@
       <c r="J91" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K91">
         <v>761</v>
       </c>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8">
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91">
         <v>761</v>
       </c>
       <c r="Q91" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R91" s="8">
+      <c r="R91">
         <v>2</v>
       </c>
-      <c r="S91" s="8">
+      <c r="S91">
         <v>1566</v>
       </c>
     </row>
@@ -9984,24 +12961,24 @@
       <c r="J92" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K92" s="8">
+      <c r="K92">
         <v>777</v>
       </c>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8">
+      <c r="L92"/>
+      <c r="M92">
         <v>789</v>
       </c>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8">
+      <c r="N92"/>
+      <c r="O92">
         <v>1566</v>
       </c>
       <c r="Q92" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R92" s="8">
+      <c r="R92">
         <v>2</v>
       </c>
-      <c r="S92" s="8">
+      <c r="S92">
         <v>1431</v>
       </c>
     </row>
@@ -10030,24 +13007,24 @@
       <c r="J93" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8">
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93">
         <v>798</v>
       </c>
-      <c r="N93" s="8">
+      <c r="N93">
         <v>633</v>
       </c>
-      <c r="O93" s="8">
+      <c r="O93">
         <v>1431</v>
       </c>
       <c r="Q93" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R93" s="8">
+      <c r="R93">
         <v>2</v>
       </c>
-      <c r="S93" s="8">
+      <c r="S93">
         <v>655</v>
       </c>
     </row>
@@ -10076,24 +13053,24 @@
       <c r="J94" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K94" s="8">
+      <c r="K94">
         <v>187</v>
       </c>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8">
+      <c r="L94"/>
+      <c r="M94">
         <v>468</v>
       </c>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8">
+      <c r="N94"/>
+      <c r="O94">
         <v>655</v>
       </c>
       <c r="Q94" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="R94" s="8">
+      <c r="R94">
         <v>1</v>
       </c>
-      <c r="S94" s="8">
+      <c r="S94">
         <v>786</v>
       </c>
     </row>
@@ -10122,22 +13099,22 @@
       <c r="J95" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8">
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95">
         <v>786</v>
       </c>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8">
+      <c r="N95"/>
+      <c r="O95">
         <v>786</v>
       </c>
       <c r="Q95" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R95" s="8">
+      <c r="R95">
         <v>1</v>
       </c>
-      <c r="S95" s="8">
+      <c r="S95">
         <v>176</v>
       </c>
     </row>
@@ -10166,22 +13143,22 @@
       <c r="J96" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K96" s="8">
+      <c r="K96">
         <v>176</v>
       </c>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8">
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96">
         <v>176</v>
       </c>
       <c r="Q96" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="R96" s="8">
+      <c r="R96">
         <v>2</v>
       </c>
-      <c r="S96" s="8">
+      <c r="S96">
         <v>430</v>
       </c>
     </row>
@@ -10210,24 +13187,24 @@
       <c r="J97" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K97" s="8">
+      <c r="K97">
         <v>219</v>
       </c>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8">
+      <c r="L97"/>
+      <c r="M97">
         <v>211</v>
       </c>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8">
+      <c r="N97"/>
+      <c r="O97">
         <v>430</v>
       </c>
       <c r="Q97" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R97" s="8">
+      <c r="R97">
         <v>1</v>
       </c>
-      <c r="S97" s="8">
+      <c r="S97">
         <v>356</v>
       </c>
     </row>
@@ -10256,22 +13233,22 @@
       <c r="J98" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8">
+      <c r="K98"/>
+      <c r="L98">
         <v>356</v>
       </c>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8">
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98">
         <v>356</v>
       </c>
       <c r="Q98" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R98" s="8">
+      <c r="R98">
         <v>2</v>
       </c>
-      <c r="S98" s="8">
+      <c r="S98">
         <v>1320</v>
       </c>
     </row>
@@ -10300,22 +13277,22 @@
       <c r="J99" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K99" s="8">
+      <c r="K99">
         <v>1320</v>
       </c>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8">
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99">
         <v>1320</v>
       </c>
       <c r="Q99" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="R99" s="8">
+      <c r="R99">
         <v>1</v>
       </c>
-      <c r="S99" s="8">
+      <c r="S99">
         <v>864</v>
       </c>
     </row>
@@ -10344,22 +13321,22 @@
       <c r="J100" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8">
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100">
         <v>864</v>
       </c>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8">
+      <c r="N100"/>
+      <c r="O100">
         <v>864</v>
       </c>
       <c r="Q100" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="R100" s="8">
+      <c r="R100">
         <v>123</v>
       </c>
-      <c r="S100" s="8">
+      <c r="S100">
         <v>62037</v>
       </c>
     </row>
@@ -10388,19 +13365,19 @@
       <c r="J101" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K101" s="8">
+      <c r="K101">
         <v>19173</v>
       </c>
-      <c r="L101" s="8">
+      <c r="L101">
         <v>8687</v>
       </c>
-      <c r="M101" s="8">
+      <c r="M101">
         <v>16952</v>
       </c>
-      <c r="N101" s="8">
+      <c r="N101">
         <v>17225</v>
       </c>
-      <c r="O101" s="8">
+      <c r="O101">
         <v>62037</v>
       </c>
     </row>
@@ -11710,6 +14687,14 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId8"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11717,7 +14702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F93D76-5288-4564-9C0A-379FD3E48716}">
   <dimension ref="A2:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="94" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -11743,48 +14728,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -11814,7 +14799,7 @@
       <c r="D5" s="2">
         <v>66030</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>43983</v>
       </c>
       <c r="F5" s="2">
@@ -11838,13 +14823,13 @@
       <c r="N5" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5">
         <v>20</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5">
         <v>46100</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="20">
         <v>0.24227454277906244</v>
       </c>
       <c r="R5"/>
@@ -11862,7 +14847,7 @@
       <c r="D6" s="2">
         <v>66030</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>43984</v>
       </c>
       <c r="F6" s="2">
@@ -11886,13 +14871,13 @@
       <c r="N6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6">
         <v>29</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6">
         <v>42500</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="20">
         <v>0.2233550557073786</v>
       </c>
     </row>
@@ -11909,7 +14894,7 @@
       <c r="D7" s="2">
         <v>66032</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>43983</v>
       </c>
       <c r="F7" s="2">
@@ -11933,13 +14918,13 @@
       <c r="N7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7">
         <v>34</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7">
         <v>43240</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="20">
         <v>0.22724406138322473</v>
       </c>
     </row>
@@ -11956,7 +14941,7 @@
       <c r="D8" s="2">
         <v>66032</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>43984</v>
       </c>
       <c r="F8" s="2">
@@ -11980,13 +14965,13 @@
       <c r="N8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8">
         <v>22</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8">
         <v>58440</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="20">
         <v>0.30712634013033424</v>
       </c>
     </row>
@@ -12003,7 +14988,7 @@
       <c r="D9" s="2">
         <v>66031</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>43983</v>
       </c>
       <c r="F9" s="2">
@@ -12027,13 +15012,13 @@
       <c r="N9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9">
         <v>105</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9">
         <v>190280</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="20">
         <v>1</v>
       </c>
     </row>
@@ -12050,7 +15035,7 @@
       <c r="D10" s="2">
         <v>66031</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="14">
         <v>43984</v>
       </c>
       <c r="F10" s="2">
@@ -12088,7 +15073,7 @@
       <c r="D11" s="2">
         <v>66031</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>43989</v>
       </c>
       <c r="F11" s="2">
@@ -12126,7 +15111,7 @@
       <c r="D12" s="2">
         <v>68112</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <v>43990</v>
       </c>
       <c r="F12" s="2">
@@ -12170,7 +15155,7 @@
       <c r="D13" s="2">
         <v>68112</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>43991</v>
       </c>
       <c r="F13" s="2">
@@ -12194,10 +15179,10 @@
       <c r="N13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13">
         <v>860</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="21">
         <v>27710</v>
       </c>
     </row>
@@ -12214,7 +15199,7 @@
       <c r="D14" s="2">
         <v>68116</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="14">
         <v>43992</v>
       </c>
       <c r="F14" s="2">
@@ -12238,10 +15223,10 @@
       <c r="N14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14">
         <v>1010</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="21">
         <v>33170</v>
       </c>
     </row>
@@ -12258,7 +15243,7 @@
       <c r="D15" s="2">
         <v>68116</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>43993</v>
       </c>
       <c r="F15" s="2">
@@ -12282,10 +15267,10 @@
       <c r="N15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15">
         <v>150</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="21">
         <v>750</v>
       </c>
     </row>
@@ -12302,7 +15287,7 @@
       <c r="D16" s="2">
         <v>68116</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>43994</v>
       </c>
       <c r="F16" s="2">
@@ -12326,10 +15311,10 @@
       <c r="N16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16">
         <v>100</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="21">
         <v>2500</v>
       </c>
     </row>
@@ -12346,7 +15331,7 @@
       <c r="D17" s="2">
         <v>68116</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>43995</v>
       </c>
       <c r="F17" s="2">
@@ -12370,10 +15355,10 @@
       <c r="N17" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17">
         <v>50</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="21">
         <v>1250</v>
       </c>
     </row>
@@ -12390,7 +15375,7 @@
       <c r="D18" s="2">
         <v>68116</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>43996</v>
       </c>
       <c r="F18" s="2">
@@ -12414,10 +15399,10 @@
       <c r="N18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18">
         <v>210</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="21">
         <v>3780</v>
       </c>
     </row>
@@ -12434,7 +15419,7 @@
       <c r="D19" s="2">
         <v>65662</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="14">
         <v>43997</v>
       </c>
       <c r="F19" s="2">
@@ -12458,10 +15443,10 @@
       <c r="N19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19">
         <v>160</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="21">
         <v>2880</v>
       </c>
     </row>
@@ -12478,7 +15463,7 @@
       <c r="D20" s="2">
         <v>65662</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="14">
         <v>43998</v>
       </c>
       <c r="F20" s="2">
@@ -12502,10 +15487,10 @@
       <c r="N20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20">
         <v>110</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="21">
         <v>1320</v>
       </c>
     </row>
@@ -12522,7 +15507,7 @@
       <c r="D21" s="2">
         <v>65666</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <v>43984</v>
       </c>
       <c r="F21" s="2">
@@ -12546,10 +15531,10 @@
       <c r="N21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21">
         <v>310</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="21">
         <v>3720</v>
       </c>
     </row>
@@ -12566,7 +15551,7 @@
       <c r="D22" s="2">
         <v>65666</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="14">
         <v>43985</v>
       </c>
       <c r="F22" s="2">
@@ -12590,10 +15575,10 @@
       <c r="N22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22">
         <v>570</v>
       </c>
-      <c r="P22" s="25">
+      <c r="P22" s="21">
         <v>40160</v>
       </c>
     </row>
@@ -12610,7 +15595,7 @@
       <c r="D23" s="2">
         <v>65666</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="14">
         <v>43986</v>
       </c>
       <c r="F23" s="2">
@@ -12634,10 +15619,10 @@
       <c r="N23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23">
         <v>280</v>
       </c>
-      <c r="P23" s="25">
+      <c r="P23" s="21">
         <v>6580</v>
       </c>
     </row>
@@ -12654,7 +15639,7 @@
       <c r="D24" s="2">
         <v>65666</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="14">
         <v>43987</v>
       </c>
       <c r="F24" s="2">
@@ -12678,10 +15663,10 @@
       <c r="N24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24">
         <v>60</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24" s="21">
         <v>360</v>
       </c>
     </row>
@@ -12698,7 +15683,7 @@
       <c r="D25" s="2">
         <v>65666</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="14">
         <v>43988</v>
       </c>
       <c r="F25" s="2">
@@ -12722,10 +15707,10 @@
       <c r="N25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25">
         <v>640</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="21">
         <v>3200</v>
       </c>
     </row>
@@ -12742,7 +15727,7 @@
       <c r="D26" s="2">
         <v>66015</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <v>43992</v>
       </c>
       <c r="F26" s="2">
@@ -12766,10 +15751,10 @@
       <c r="N26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26">
         <v>1430</v>
       </c>
-      <c r="P26" s="25">
+      <c r="P26" s="21">
         <v>14300</v>
       </c>
     </row>
@@ -12786,7 +15771,7 @@
       <c r="D27" s="2">
         <v>66015</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <v>43993</v>
       </c>
       <c r="F27" s="2">
@@ -12810,10 +15795,10 @@
       <c r="N27" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27">
         <v>2330</v>
       </c>
-      <c r="P27" s="25">
+      <c r="P27" s="21">
         <v>27960</v>
       </c>
     </row>
@@ -12830,7 +15815,7 @@
       <c r="D28" s="2">
         <v>66017</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <v>43994</v>
       </c>
       <c r="F28" s="2">
@@ -12854,10 +15839,10 @@
       <c r="N28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28">
         <v>1720</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="21">
         <v>20640</v>
       </c>
     </row>
@@ -12874,7 +15859,7 @@
       <c r="D29" s="2">
         <v>66017</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <v>43995</v>
       </c>
       <c r="F29" s="2">
@@ -12898,10 +15883,10 @@
       <c r="N29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29">
         <v>9990</v>
       </c>
-      <c r="P29" s="25">
+      <c r="P29" s="21">
         <v>190280</v>
       </c>
     </row>
@@ -12918,7 +15903,7 @@
       <c r="D30" s="2">
         <v>66016</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <v>43996</v>
       </c>
       <c r="F30" s="2">
@@ -12953,7 +15938,7 @@
       <c r="D31" s="2">
         <v>66016</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="14">
         <v>43997</v>
       </c>
       <c r="F31" s="2">
@@ -12988,7 +15973,7 @@
       <c r="D32" s="2">
         <v>66016</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="14">
         <v>43998</v>
       </c>
       <c r="F32" s="2">
@@ -13023,7 +16008,7 @@
       <c r="D33" s="2">
         <v>68097</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="14">
         <v>43999</v>
       </c>
       <c r="F33" s="2">
@@ -13058,7 +16043,7 @@
       <c r="D34" s="2">
         <v>68097</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="14">
         <v>44000</v>
       </c>
       <c r="F34" s="2">
@@ -13093,7 +16078,7 @@
       <c r="D35" s="2">
         <v>68099</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="14">
         <v>44001</v>
       </c>
       <c r="F35" s="2">
@@ -13128,7 +16113,7 @@
       <c r="D36" s="2">
         <v>68099</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="14">
         <v>44002</v>
       </c>
       <c r="F36" s="2">
@@ -13163,7 +16148,7 @@
       <c r="D37" s="2">
         <v>68099</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="14">
         <v>44003</v>
       </c>
       <c r="F37" s="2">
@@ -13198,7 +16183,7 @@
       <c r="D38" s="2">
         <v>68101</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="14">
         <v>43997</v>
       </c>
       <c r="F38" s="2">
@@ -13233,7 +16218,7 @@
       <c r="D39" s="2">
         <v>68101</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="14">
         <v>43998</v>
       </c>
       <c r="F39" s="2">
@@ -13268,7 +16253,7 @@
       <c r="D40" s="2">
         <v>65627</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="14">
         <v>43999</v>
       </c>
       <c r="F40" s="2">
@@ -13303,7 +16288,7 @@
       <c r="D41" s="2">
         <v>65627</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="14">
         <v>44000</v>
       </c>
       <c r="F41" s="2">
@@ -13338,7 +16323,7 @@
       <c r="D42" s="2">
         <v>65629</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="14">
         <v>44001</v>
       </c>
       <c r="F42" s="2">
@@ -13373,7 +16358,7 @@
       <c r="D43" s="2">
         <v>65629</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="14">
         <v>44002</v>
       </c>
       <c r="F43" s="2">
@@ -13408,7 +16393,7 @@
       <c r="D44" s="2">
         <v>65629</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="14">
         <v>44003</v>
       </c>
       <c r="F44" s="2">
@@ -13443,7 +16428,7 @@
       <c r="D45" s="2">
         <v>65631</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="14">
         <v>44004</v>
       </c>
       <c r="F45" s="2">
@@ -13478,7 +16463,7 @@
       <c r="D46" s="2">
         <v>65631</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="14">
         <v>44005</v>
       </c>
       <c r="F46" s="2">
@@ -13513,7 +16498,7 @@
       <c r="D47" s="2">
         <v>24030</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="14">
         <v>43983</v>
       </c>
       <c r="F47" s="2">
@@ -13548,7 +16533,7 @@
       <c r="D48" s="2">
         <v>24030</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="14">
         <v>43984</v>
       </c>
       <c r="F48" s="2">
@@ -13583,7 +16568,7 @@
       <c r="D49" s="2">
         <v>24030</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="14">
         <v>43985</v>
       </c>
       <c r="F49" s="2">
@@ -13618,7 +16603,7 @@
       <c r="D50" s="2">
         <v>24030</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="14">
         <v>43986</v>
       </c>
       <c r="F50" s="2">
@@ -13653,7 +16638,7 @@
       <c r="D51" s="2">
         <v>24031</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="14">
         <v>43987</v>
       </c>
       <c r="F51" s="2">
@@ -13688,7 +16673,7 @@
       <c r="D52" s="2">
         <v>24031</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="14">
         <v>43988</v>
       </c>
       <c r="F52" s="2">
@@ -13723,7 +16708,7 @@
       <c r="D53" s="2">
         <v>24031</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="14">
         <v>43989</v>
       </c>
       <c r="F53" s="2">
@@ -13758,7 +16743,7 @@
       <c r="D54" s="2">
         <v>28112</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="14">
         <v>43990</v>
       </c>
       <c r="F54" s="2">
@@ -13793,7 +16778,7 @@
       <c r="D55" s="2">
         <v>28112</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="14">
         <v>43991</v>
       </c>
       <c r="F55" s="2">
@@ -13828,7 +16813,7 @@
       <c r="D56" s="2">
         <v>28112</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="14">
         <v>43992</v>
       </c>
       <c r="F56" s="2">
@@ -13863,7 +16848,7 @@
       <c r="D57" s="2">
         <v>28112</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="14">
         <v>43993</v>
       </c>
       <c r="F57" s="2">
@@ -13898,7 +16883,7 @@
       <c r="D58" s="2">
         <v>28112</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="14">
         <v>43994</v>
       </c>
       <c r="F58" s="2">
@@ -13933,7 +16918,7 @@
       <c r="D59" s="2">
         <v>28112</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="14">
         <v>43995</v>
       </c>
       <c r="F59" s="2">
@@ -13968,7 +16953,7 @@
       <c r="D60" s="2">
         <v>28112</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="14">
         <v>43996</v>
       </c>
       <c r="F60" s="2">
@@ -14003,7 +16988,7 @@
       <c r="D61" s="2">
         <v>25442</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="14">
         <v>43997</v>
       </c>
       <c r="F61" s="2">
@@ -14038,7 +17023,7 @@
       <c r="D62" s="2">
         <v>25442</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="14">
         <v>43998</v>
       </c>
       <c r="F62" s="2">
@@ -14073,7 +17058,7 @@
       <c r="D63" s="2">
         <v>25442</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="14">
         <v>43999</v>
       </c>
       <c r="F63" s="2">
@@ -14108,7 +17093,7 @@
       <c r="D64" s="2">
         <v>25442</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="14">
         <v>44000</v>
       </c>
       <c r="F64" s="2">
@@ -14143,7 +17128,7 @@
       <c r="D65" s="2">
         <v>25442</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="14">
         <v>44001</v>
       </c>
       <c r="F65" s="2">
@@ -14178,7 +17163,7 @@
       <c r="D66" s="2">
         <v>25442</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="14">
         <v>44002</v>
       </c>
       <c r="F66" s="2">
@@ -14213,7 +17198,7 @@
       <c r="D67" s="2">
         <v>25442</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="14">
         <v>44003</v>
       </c>
       <c r="F67" s="2">
@@ -14248,7 +17233,7 @@
       <c r="D68" s="2">
         <v>44030</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="14">
         <v>43983</v>
       </c>
       <c r="F68" s="2">
@@ -14283,7 +17268,7 @@
       <c r="D69" s="2">
         <v>44030</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="14">
         <v>43984</v>
       </c>
       <c r="F69" s="2">
@@ -14318,7 +17303,7 @@
       <c r="D70" s="2">
         <v>44032</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="14">
         <v>43983</v>
       </c>
       <c r="F70" s="2">
@@ -14353,7 +17338,7 @@
       <c r="D71" s="2">
         <v>44032</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="14">
         <v>43984</v>
       </c>
       <c r="F71" s="2">
@@ -14388,7 +17373,7 @@
       <c r="D72" s="2">
         <v>44031</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="14">
         <v>43983</v>
       </c>
       <c r="F72" s="2">
@@ -14423,7 +17408,7 @@
       <c r="D73" s="2">
         <v>44031</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="14">
         <v>43984</v>
       </c>
       <c r="F73" s="2">
@@ -14458,7 +17443,7 @@
       <c r="D74" s="2">
         <v>44031</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="14">
         <v>43989</v>
       </c>
       <c r="F74" s="2">
@@ -14493,7 +17478,7 @@
       <c r="D75" s="2">
         <v>48112</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="14">
         <v>43990</v>
       </c>
       <c r="F75" s="2">
@@ -14528,7 +17513,7 @@
       <c r="D76" s="2">
         <v>48112</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="14">
         <v>43991</v>
       </c>
       <c r="F76" s="2">
@@ -14563,7 +17548,7 @@
       <c r="D77" s="2">
         <v>48114</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="14">
         <v>43990</v>
       </c>
       <c r="F77" s="2">
@@ -14598,7 +17583,7 @@
       <c r="D78" s="2">
         <v>48114</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="14">
         <v>43991</v>
       </c>
       <c r="F78" s="2">
@@ -14633,7 +17618,7 @@
       <c r="D79" s="2">
         <v>48114</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="14">
         <v>43994</v>
       </c>
       <c r="F79" s="2">
@@ -14668,7 +17653,7 @@
       <c r="D80" s="2">
         <v>48116</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="14">
         <v>43990</v>
       </c>
       <c r="F80" s="2">
@@ -14703,7 +17688,7 @@
       <c r="D81" s="2">
         <v>48116</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="14">
         <v>43991</v>
       </c>
       <c r="F81" s="2">
@@ -14738,7 +17723,7 @@
       <c r="D82" s="2">
         <v>45442</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="14">
         <v>43997</v>
       </c>
       <c r="F82" s="2">
@@ -14773,7 +17758,7 @@
       <c r="D83" s="2">
         <v>45442</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="14">
         <v>43998</v>
       </c>
       <c r="F83" s="2">
@@ -14808,7 +17793,7 @@
       <c r="D84" s="2">
         <v>45444</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="14">
         <v>43997</v>
       </c>
       <c r="F84" s="2">
@@ -14843,7 +17828,7 @@
       <c r="D85" s="2">
         <v>45444</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="14">
         <v>43998</v>
       </c>
       <c r="F85" s="2">
@@ -14878,7 +17863,7 @@
       <c r="D86" s="2">
         <v>45444</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86" s="14">
         <v>44001</v>
       </c>
       <c r="F86" s="2">
@@ -14913,7 +17898,7 @@
       <c r="D87" s="2">
         <v>45446</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="14">
         <v>43997</v>
       </c>
       <c r="F87" s="2">
@@ -14948,7 +17933,7 @@
       <c r="D88" s="2">
         <v>45446</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="14">
         <v>43998</v>
       </c>
       <c r="F88" s="2">
@@ -14983,7 +17968,7 @@
       <c r="D89" s="2">
         <v>44015</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="14">
         <v>44000</v>
       </c>
       <c r="F89" s="2">
@@ -15018,7 +18003,7 @@
       <c r="D90" s="2">
         <v>44015</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="14">
         <v>44005</v>
       </c>
       <c r="F90" s="2">
@@ -15053,7 +18038,7 @@
       <c r="D91" s="2">
         <v>44017</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="14">
         <v>43998</v>
       </c>
       <c r="F91" s="2">
@@ -15088,7 +18073,7 @@
       <c r="D92" s="2">
         <v>44017</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="14">
         <v>44007</v>
       </c>
       <c r="F92" s="2">
@@ -15123,7 +18108,7 @@
       <c r="D93" s="2">
         <v>44016</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="14">
         <v>43998</v>
       </c>
       <c r="F93" s="2">
@@ -15158,7 +18143,7 @@
       <c r="D94" s="2">
         <v>44016</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="14">
         <v>44000</v>
       </c>
       <c r="F94" s="2">
@@ -15193,7 +18178,7 @@
       <c r="D95" s="2">
         <v>44016</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="14">
         <v>44005</v>
       </c>
       <c r="F95" s="2">
@@ -15228,7 +18213,7 @@
       <c r="D96" s="2">
         <v>48097</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="14">
         <v>44011</v>
       </c>
       <c r="F96" s="2">
@@ -15263,7 +18248,7 @@
       <c r="D97" s="2">
         <v>48097</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="14">
         <v>44012</v>
       </c>
       <c r="F97" s="2">
@@ -15298,7 +18283,7 @@
       <c r="D98" s="2">
         <v>48099</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="14">
         <v>43997</v>
       </c>
       <c r="F98" s="2">
@@ -15333,7 +18318,7 @@
       <c r="D99" s="2">
         <v>48099</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99" s="14">
         <v>43998</v>
       </c>
       <c r="F99" s="2">
@@ -15368,7 +18353,7 @@
       <c r="D100" s="2">
         <v>48099</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100" s="14">
         <v>43999</v>
       </c>
       <c r="F100" s="2">
@@ -15403,7 +18388,7 @@
       <c r="D101" s="2">
         <v>48101</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101" s="14">
         <v>44000</v>
       </c>
       <c r="F101" s="2">
@@ -15438,7 +18423,7 @@
       <c r="D102" s="2">
         <v>48101</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E102" s="14">
         <v>44001</v>
       </c>
       <c r="F102" s="2">
@@ -15473,7 +18458,7 @@
       <c r="D103" s="2">
         <v>45427</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="14">
         <v>44002</v>
       </c>
       <c r="F103" s="2">
@@ -15508,7 +18493,7 @@
       <c r="D104" s="2">
         <v>45427</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E104" s="14">
         <v>44003</v>
       </c>
       <c r="F104" s="2">
@@ -15543,7 +18528,7 @@
       <c r="D105" s="2">
         <v>45429</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="14">
         <v>44004</v>
       </c>
       <c r="F105" s="2">
@@ -15578,7 +18563,7 @@
       <c r="D106" s="2">
         <v>45429</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="14">
         <v>44005</v>
       </c>
       <c r="F106" s="2">
@@ -15613,7 +18598,7 @@
       <c r="D107" s="2">
         <v>45429</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="14">
         <v>44006</v>
       </c>
       <c r="F107" s="2">
@@ -15648,7 +18633,7 @@
       <c r="D108" s="2">
         <v>45431</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="14">
         <v>44007</v>
       </c>
       <c r="F108" s="2">
@@ -15671,37 +18656,37 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="16">
         <v>45431</v>
       </c>
-      <c r="E109" s="20">
+      <c r="E109" s="17">
         <v>44008</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F109" s="16">
         <v>8050</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H109" s="19">
+      <c r="H109" s="16">
         <v>108</v>
       </c>
-      <c r="I109" s="19" t="s">
+      <c r="I109" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="J109" s="19">
+      <c r="J109" s="16">
         <v>60</v>
       </c>
-      <c r="K109" s="21">
+      <c r="K109" s="18">
         <v>1970</v>
       </c>
     </row>

--- a/Excel Practice Sheet  - 2.xlsx
+++ b/Excel Practice Sheet  - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221E1B12-619D-4EB3-AC02-351CEBB7101D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70249A-C527-428A-8E01-E8292DA40079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{67E8DA95-3A18-49ED-95FD-83640ED7A3D7}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
     <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
@@ -717,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,6 +776,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,1504 +794,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1 2" xfId="1" xr:uid="{B2AD1880-B68A-4B08-96D9-4C60618E7766}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2519,8 +1036,145 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D0DCB881-81DE-4B22-8AB6-C77B833651AB}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2547,8 +1201,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Region">
@@ -2571,7 +1225,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6328,180 +4982,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95F379FD-CFEE-4100-9987-6C57B7DD9023}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="V13:Z18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Count" fld="5" subtotal="count" baseField="2" baseItem="0"/>
-    <dataField name="Max" fld="5" subtotal="max" baseField="2" baseItem="0"/>
-    <dataField name="Min" fld="5" subtotal="min" baseField="2" baseItem="0"/>
-    <dataField name="Average" fld="5" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="75">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="73">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="72">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="71">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="70">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="4">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="63">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{483D007E-0CB5-4524-8BD0-33E585FABB22}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="V3:W8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Region" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9094F811-BFED-4AF2-8417-0761723F0AAC}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q5:S17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
@@ -6606,7 +5086,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA7583C5-2F53-4FCE-9064-E28CBD0E8516}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q20:S100" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -6980,7 +5460,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C3BB5A4-1AFA-4131-A6F0-4AF92C3105EF}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J20:O101" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -7362,7 +5842,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2BD17C4B-1725-46C8-B97D-BD49F194C828}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:O17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -7555,7 +6035,256 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95F379FD-CFEE-4100-9987-6C57B7DD9023}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="V13:Z18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Count" fld="5" subtotal="count" baseField="2" baseItem="0"/>
+    <dataField name="Max" fld="5" subtotal="max" baseField="2" baseItem="0"/>
+    <dataField name="Min" fld="5" subtotal="min" baseField="2" baseItem="0"/>
+    <dataField name="Average" fld="5" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="22">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{483D007E-0CB5-4524-8BD0-33E585FABB22}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="V3:W8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Region" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5208B30D-EE0C-4D2F-AA48-03779C3CF352}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N4:Q9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count of Sales USD2" fld="10" subtotal="count" baseField="6" baseItem="0"/>
+    <dataField name="Sum of Sales USD" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sales USD2" fld="10" showDataAs="percentOfCol" baseField="6" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{460466CF-E571-4036-B48A-23AAA87EADA9}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N12:P29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -7674,81 +6403,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5208B30D-EE0C-4D2F-AA48-03779C3CF352}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N4:Q9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Count of Sales USD2" fld="10" subtotal="count" baseField="6" baseItem="0"/>
-    <dataField name="Sum of Sales USD" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sales USD2" fld="10" showDataAs="percentOfCol" baseField="6" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{D10DE80C-8845-48CF-A6E7-232C1932F71B}" sourceName="Region">
   <pivotTables>
@@ -7774,20 +6428,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E33BC7F1-12CD-47B2-A552-C90339193F01}" name="TSales" displayName="TSales" ref="A4:K109" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E33BC7F1-12CD-47B2-A552-C90339193F01}" name="TSales" displayName="TSales" ref="A4:K109" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A4:K109" xr:uid="{E33BC7F1-12CD-47B2-A552-C90339193F01}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2966329C-A62F-44E6-89D5-0DE878C5EBA0}" name="Company" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{601FC05C-DD97-400B-B87A-8F0C30F1BF82}" name="Company Name" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{42DBEE80-7CAF-408F-B4C5-72CA26C830C6}" name="Region" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{850FFB37-8260-4587-BDB5-FEBD4F929595}" name="Sales Document" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{A77C7119-0FDD-4D0C-9121-FB7463557974}" name="Document Date" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{60AE0352-1072-44E8-8DE0-C5167A1CE529}" name="Customer Code" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{8323C244-A6CF-446E-850B-B057C264D8FA}" name="Customer Name" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{B3AD1F34-8C35-4AEB-A1D5-7BD5EF0AA5D0}" name="Product Code" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{C1A5384B-6BD7-4098-BF4F-C6CFF6720154}" name="Product Description" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{C5DCA8D5-5839-45E9-BD9D-CCDB0465C0CF}" name="Quantity" dataDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{D3212CF1-6C2D-497B-A08F-FF8F60667875}" name="Sales USD" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{2966329C-A62F-44E6-89D5-0DE878C5EBA0}" name="Company" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{601FC05C-DD97-400B-B87A-8F0C30F1BF82}" name="Company Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{42DBEE80-7CAF-408F-B4C5-72CA26C830C6}" name="Region" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{850FFB37-8260-4587-BDB5-FEBD4F929595}" name="Sales Document" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A77C7119-0FDD-4D0C-9121-FB7463557974}" name="Document Date" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{60AE0352-1072-44E8-8DE0-C5167A1CE529}" name="Customer Code" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{8323C244-A6CF-446E-850B-B057C264D8FA}" name="Customer Name" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B3AD1F34-8C35-4AEB-A1D5-7BD5EF0AA5D0}" name="Product Code" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C1A5384B-6BD7-4098-BF4F-C6CFF6720154}" name="Product Description" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{C5DCA8D5-5839-45E9-BD9D-CCDB0465C0CF}" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{D3212CF1-6C2D-497B-A08F-FF8F60667875}" name="Sales USD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8092,8 +6746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF590C2E-A348-4945-B6B6-B6282067E128}">
   <dimension ref="A1:DL198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8136,15 +6790,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:116" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="J1"/>
       <c r="K1"/>
     </row>
@@ -8927,7 +7581,7 @@
       </c>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11" s="25" t="s">
+      <c r="V11" s="22" t="s">
         <v>152</v>
       </c>
       <c r="W11"/>
@@ -9041,19 +7695,19 @@
       </c>
       <c r="T13"/>
       <c r="U13"/>
-      <c r="V13" s="26" t="s">
+      <c r="V13" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="W13" s="27" t="s">
+      <c r="W13" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="X13" s="27" t="s">
+      <c r="X13" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Y13" s="27" t="s">
+      <c r="Y13" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Z13" s="27" t="s">
+      <c r="Z13" s="24" t="s">
         <v>156</v>
       </c>
     </row>
@@ -9103,19 +7757,19 @@
       </c>
       <c r="T14"/>
       <c r="U14"/>
-      <c r="V14" s="28" t="s">
+      <c r="V14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="24">
         <v>39</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="24">
         <v>999</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="24">
         <v>123</v>
       </c>
-      <c r="Z14" s="30">
+      <c r="Z14" s="26">
         <v>491.61538461538464</v>
       </c>
     </row>
@@ -9169,19 +7823,19 @@
       </c>
       <c r="T15"/>
       <c r="U15"/>
-      <c r="V15" s="28" t="s">
+      <c r="V15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="24">
         <v>21</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="24">
         <v>864</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Y15" s="24">
         <v>123</v>
       </c>
-      <c r="Z15" s="30">
+      <c r="Z15" s="26">
         <v>413.66666666666669</v>
       </c>
     </row>
@@ -9237,19 +7891,19 @@
       </c>
       <c r="T16"/>
       <c r="U16"/>
-      <c r="V16" s="28" t="s">
+      <c r="V16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="W16" s="29">
+      <c r="W16" s="24">
         <v>31</v>
       </c>
-      <c r="X16" s="29">
+      <c r="X16" s="24">
         <v>988</v>
       </c>
-      <c r="Y16" s="29">
+      <c r="Y16" s="24">
         <v>125</v>
       </c>
-      <c r="Z16" s="30">
+      <c r="Z16" s="26">
         <v>546.83870967741939</v>
       </c>
     </row>
@@ -9305,19 +7959,19 @@
       </c>
       <c r="T17"/>
       <c r="U17"/>
-      <c r="V17" s="28" t="s">
+      <c r="V17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="29">
+      <c r="W17" s="24">
         <v>32</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="24">
         <v>999</v>
       </c>
-      <c r="Y17" s="29">
+      <c r="Y17" s="24">
         <v>127</v>
       </c>
-      <c r="Z17" s="30">
+      <c r="Z17" s="26">
         <v>538.28125</v>
       </c>
     </row>
@@ -9355,19 +8009,19 @@
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
-      <c r="V18" s="28" t="s">
+      <c r="V18" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="W18" s="29">
+      <c r="W18" s="24">
         <v>123</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="24">
         <v>999</v>
       </c>
-      <c r="Y18" s="29">
+      <c r="Y18" s="24">
         <v>123</v>
       </c>
-      <c r="Z18" s="30">
+      <c r="Z18" s="26">
         <v>504.36585365853659</v>
       </c>
     </row>
@@ -14728,15 +13382,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
